--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,145 +22,217 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>001071</t>
+  </si>
+  <si>
+    <t>006879</t>
+  </si>
+  <si>
+    <t>040007</t>
+  </si>
+  <si>
+    <t>040025</t>
+  </si>
+  <si>
+    <t>660005</t>
+  </si>
+  <si>
+    <t>007460</t>
+  </si>
+  <si>
+    <t>398011</t>
+  </si>
+  <si>
+    <t>001072</t>
+  </si>
+  <si>
     <t>006122</t>
   </si>
   <si>
-    <t>398011</t>
-  </si>
-  <si>
-    <t>006879</t>
-  </si>
-  <si>
-    <t>001071</t>
-  </si>
-  <si>
-    <t>001072</t>
-  </si>
-  <si>
-    <t>007460</t>
-  </si>
-  <si>
-    <t>040007</t>
-  </si>
-  <si>
-    <t>040025</t>
+    <t>001905</t>
   </si>
   <si>
     <t>001574</t>
   </si>
   <si>
-    <t>001905</t>
-  </si>
-  <si>
-    <t>660005</t>
+    <t>华安媒体互联网混合</t>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+  </si>
+  <si>
+    <t>华安中小盘成长混合</t>
+  </si>
+  <si>
+    <t>华安科技动力混合</t>
+  </si>
+  <si>
+    <t>农银中小盘混合</t>
+  </si>
+  <si>
+    <t>华安成长创新混合</t>
+  </si>
+  <si>
+    <t>中海分红增利混合</t>
+  </si>
+  <si>
+    <t>华安智能装备主题股票</t>
   </si>
   <si>
     <t>华安低碳生活混合</t>
   </si>
   <si>
-    <t>中海分红增利混合</t>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-  </si>
-  <si>
-    <t>华安媒体互联网混合</t>
-  </si>
-  <si>
-    <t>华安智能装备主题股票</t>
-  </si>
-  <si>
-    <t>华安成长创新混合</t>
-  </si>
-  <si>
-    <t>华安中小盘成长混合</t>
-  </si>
-  <si>
-    <t>华安科技动力混合</t>
+    <t>华安安益灵活配置混合</t>
   </si>
   <si>
     <t>中海混改红利主题精选灵活配置混合</t>
   </si>
   <si>
-    <t>华安安益灵活配置混合</t>
-  </si>
-  <si>
-    <t>农银中小盘混合</t>
+    <t>44.89</t>
+  </si>
+  <si>
+    <t>20.64</t>
+  </si>
+  <si>
+    <t>20.11</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>8.87</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>89.65</t>
+  </si>
+  <si>
+    <t>89.59</t>
+  </si>
+  <si>
+    <t>82.06</t>
+  </si>
+  <si>
+    <t>84.18</t>
+  </si>
+  <si>
+    <t>61.51</t>
+  </si>
+  <si>
+    <t>84.04</t>
+  </si>
+  <si>
+    <t>90.16</t>
+  </si>
+  <si>
+    <t>89.56</t>
   </si>
   <si>
     <t>90.31</t>
   </si>
   <si>
-    <t>90.16</t>
-  </si>
-  <si>
-    <t>89.59</t>
-  </si>
-  <si>
-    <t>89.65</t>
-  </si>
-  <si>
-    <t>89.56</t>
-  </si>
-  <si>
-    <t>84.04</t>
-  </si>
-  <si>
-    <t>82.06</t>
-  </si>
-  <si>
-    <t>84.18</t>
+    <t>20.60</t>
   </si>
   <si>
     <t>89.89</t>
   </si>
   <si>
-    <t>20.60</t>
-  </si>
-  <si>
-    <t>61.51</t>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.05</t>
   </si>
   <si>
     <t>3.12</t>
   </si>
   <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>3.00</t>
+    <t>1.62</t>
   </si>
   <si>
     <t>3.81</t>
   </si>
   <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>2.55</t>
+    <t>1.4903</t>
+  </si>
+  <si>
+    <t>0.6914</t>
+  </si>
+  <si>
+    <t>0.6174</t>
+  </si>
+  <si>
+    <t>0.3048</t>
+  </si>
+  <si>
+    <t>0.2262</t>
+  </si>
+  <si>
+    <t>0.2112</t>
+  </si>
+  <si>
+    <t>0.1971</t>
+  </si>
+  <si>
+    <t>0.1763</t>
+  </si>
+  <si>
+    <t>0.1710</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.0053</t>
   </si>
 </sst>
 </file>
@@ -518,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,225 +612,297 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.59</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.68</v>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.64</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.59</v>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.68</v>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,17 +2533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.07</v>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2568,14 +2611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.64</v>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2584,14 +2649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.59</v>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2600,14 +2687,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.68</v>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2616,13 +2725,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>3.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>5.07</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>2.64</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1664,7 +2269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2708,7 +3313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2954,7 +3559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3124,7 +3729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3256,7 +3861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
+++ b/数据整理/stocks/A股/上证主板/600138-中青旅.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>3.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>5.07</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>2.64</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -600,6 +617,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,7 +3178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3313,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3559,7 +4468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3729,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3861,7 +4770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
